--- a/docs/mcode-r4/onco-core-TumorMarkerTest.xlsx
+++ b/docs/mcode-r4/onco-core-TumorMarkerTest.xlsx
@@ -162,8 +162,8 @@
     <t>onco-core-TumorMarkerTest</t>
   </si>
   <si>
-    <t>The result of a tumor marker test. Tumor marker tests are generally used to guide cancer treatment decisions and monitor treatment, as well as to predict the chance of recovery and cancer recurrence. A tumor marker is a substance found in tissue or blood or other body fluids that may be a sign of cancer or certain benign (noncancer) conditions. Most tumor markers are made by both normal cells and cancer cells, but they are made in larger amounts by cancer cells. A tumor marker may help to diagnose cancer, plan treatment, or find out how well treatment is working or if cancer has come back. Examples of tumor markers include CA-125 (in ovarian cancer), CA 15-3 (in breast cancer), CEA (in colon cancer), and PSA (in prostate cancer). Tumor markers differ from genetic markers in that they are measured at the levels of the protein and substance post-RNA protein synthesis. (Source: Adapted from NCI Dictionary of Cancer Terms and Cancer.net)
-Implementation note: The data value element is 'required if known' (0..1) because, for quantitative tests that are indeterminate, no data value will be reported, and the reason for the null value should be reported in the DataAbsentReason field.</t>
+    <t>The result of a tumor marker test. Tumor marker tests are generally used to guide cancer treatment decisions and monitor treatment, as well as to predict the chance of recovery and cancer recurrence. A tumor marker is a substance found in tissue or blood or other body fluids that may be a sign of cancer or certain benign (noncancer) conditions. Most tumor markers are made by both normal cells and cancer cells, but they are made in larger amounts by cancer cells. A tumor marker may help to diagnose cancer, plan treatment, or find out how well treatment is working or if cancer has come back. Examples of tumor markers include CA-125 (in ovarian cancer), CA 15-3 (in breast cancer), CEA (in colon cancer), and PSA (in prostate cancer). Tumor markers differ from genetic markers in that they are measured at the levels of the protein and substance post-RNA protein synthesis. (Source: Adapted from [NCI Dictionary of Cancer Terms](https://www.cancer.gov/publications/dictionaries/cancer-terms) and [Cancer.net](https://www.cancer.net/))
+Implementation note: The data value for TumorMarkerTest has cardinality is 0..1 (required if known) because when the test result is indeterminate, no quantitative data value will be reported. Instead, the reason for the null value will be reported in the DataAbsentReason field.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -445,7 +445,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1226,7 +1226,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1448,7 +1448,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
